--- a/data-raw/goulden.barley.uniformity.xlsx
+++ b/data-raw/goulden.barley.uniformity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wrightkevi\OneDrive\kw_work\rpack\agridat\data-raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drop\rpack\agridat\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE8091B-4087-4340-8B7F-140F0F4193E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF34476-FB08-4712-B6F3-BD1094B12538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1290" yWindow="-110" windowWidth="18020" windowHeight="11020" xr2:uid="{66659485-7F85-4BAF-9FE3-AB0DE7FA354F}"/>
+    <workbookView xWindow="41475" yWindow="3465" windowWidth="11385" windowHeight="12195" xr2:uid="{66659485-7F85-4BAF-9FE3-AB0DE7FA354F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,10 +31,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -123,9 +119,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -163,7 +159,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -269,7 +265,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -411,7 +407,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7733,7 +7729,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Calibri"&amp;11&amp;K000000_x000D_&amp;1#&amp;"Arial"&amp;10&amp;K000000---Internal Use---</oddFooter>
+    <oddFooter>&amp;C&amp;"Calibri"&amp;11&amp;K000000</oddFooter>
   </headerFooter>
 </worksheet>
 </file>